--- a/Dangraf/nominas.xlsx
+++ b/Dangraf/nominas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DangrafWeb\Dangraf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72300EE2-76F3-44FF-A308-F4166A88376E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF85D1-9261-4AE7-B028-A1625E6E2EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{747CE885-B6A3-45C7-97AF-D8131B80E533}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Nominas" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nominas!$B$1:$G$26</definedName>
   </definedNames>
@@ -650,11 +647,6 @@
   </cellStyleXfs>
   <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,12 +660,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,17 +671,9 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -707,8 +686,6 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -723,10 +700,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,35 +710,57 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,424 +819,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Nomina2"/>
-      <sheetName val="Hoja 1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Paula</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Díaz Martín</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>Calle Estrella 7</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>98765432A</v>
-          </cell>
-          <cell r="F2">
-            <v>123456789</v>
-          </cell>
-          <cell r="G2">
-            <v>2</v>
-          </cell>
-          <cell r="H2">
-            <v>2</v>
-          </cell>
-          <cell r="I2">
-            <v>45682</v>
-          </cell>
-          <cell r="J2">
-            <v>45658</v>
-          </cell>
-          <cell r="K2">
-            <v>45688</v>
-          </cell>
-          <cell r="L2">
-            <v>45689</v>
-          </cell>
-          <cell r="M2">
-            <v>44936</v>
-          </cell>
-          <cell r="N2">
-            <v>1245</v>
-          </cell>
-          <cell r="O2">
-            <v>50</v>
-          </cell>
-          <cell r="P2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Luis</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>González Reyes</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Calle Árbol 10</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>87654321B</v>
-          </cell>
-          <cell r="F3">
-            <v>234567890</v>
-          </cell>
-          <cell r="G3">
-            <v>6</v>
-          </cell>
-          <cell r="H3">
-            <v>5</v>
-          </cell>
-          <cell r="I3">
-            <v>45713</v>
-          </cell>
-          <cell r="J3">
-            <v>45689</v>
-          </cell>
-          <cell r="K3">
-            <v>45716</v>
-          </cell>
-          <cell r="L3">
-            <v>45717</v>
-          </cell>
-          <cell r="M3">
-            <v>44809</v>
-          </cell>
-          <cell r="N3">
-            <v>1400</v>
-          </cell>
-          <cell r="O3">
-            <v>0</v>
-          </cell>
-          <cell r="P3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Sara</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Martín Pérez</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>Calle Sol 3</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>76543210C</v>
-          </cell>
-          <cell r="F4">
-            <v>345678901</v>
-          </cell>
-          <cell r="G4">
-            <v>2</v>
-          </cell>
-          <cell r="H4">
-            <v>1</v>
-          </cell>
-          <cell r="I4">
-            <v>45741</v>
-          </cell>
-          <cell r="J4">
-            <v>45717</v>
-          </cell>
-          <cell r="K4">
-            <v>45747</v>
-          </cell>
-          <cell r="L4">
-            <v>45748</v>
-          </cell>
-          <cell r="M4">
-            <v>44365</v>
-          </cell>
-          <cell r="N4">
-            <v>1500</v>
-          </cell>
-          <cell r="O4">
-            <v>60</v>
-          </cell>
-          <cell r="P4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>David</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Fernández Lopez</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>Calle Rosa 5</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>65432109D</v>
-          </cell>
-          <cell r="F5">
-            <v>456789012</v>
-          </cell>
-          <cell r="G5">
-            <v>1</v>
-          </cell>
-          <cell r="H5">
-            <v>1</v>
-          </cell>
-          <cell r="I5">
-            <v>45772</v>
-          </cell>
-          <cell r="J5">
-            <v>45748</v>
-          </cell>
-          <cell r="K5">
-            <v>45777</v>
-          </cell>
-          <cell r="L5">
-            <v>45778</v>
-          </cell>
-          <cell r="M5">
-            <v>43915</v>
-          </cell>
-          <cell r="N5">
-            <v>2500</v>
-          </cell>
-          <cell r="O5">
-            <v>200</v>
-          </cell>
-          <cell r="P5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Raquel</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Sánchez González</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>Calle Luna 2</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>54321098E</v>
-          </cell>
-          <cell r="F6">
-            <v>567890123</v>
-          </cell>
-          <cell r="G6">
-            <v>2</v>
-          </cell>
-          <cell r="H6">
-            <v>2</v>
-          </cell>
-          <cell r="I6">
-            <v>45802</v>
-          </cell>
-          <cell r="J6">
-            <v>45778</v>
-          </cell>
-          <cell r="K6">
-            <v>45808</v>
-          </cell>
-          <cell r="L6">
-            <v>45809</v>
-          </cell>
-          <cell r="M6">
-            <v>44867</v>
-          </cell>
-          <cell r="N6">
-            <v>1245</v>
-          </cell>
-          <cell r="O6">
-            <v>50</v>
-          </cell>
-          <cell r="P6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Antonio</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>López Martínez</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>Calle Mar 18</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>43210987F</v>
-          </cell>
-          <cell r="F7">
-            <v>569831704</v>
-          </cell>
-          <cell r="G7">
-            <v>4</v>
-          </cell>
-          <cell r="H7">
-            <v>4</v>
-          </cell>
-          <cell r="I7">
-            <v>45833</v>
-          </cell>
-          <cell r="J7">
-            <v>45809</v>
-          </cell>
-          <cell r="K7">
-            <v>45838</v>
-          </cell>
-          <cell r="L7">
-            <v>45839</v>
-          </cell>
-          <cell r="M7">
-            <v>44331</v>
-          </cell>
-          <cell r="N7">
-            <v>1510</v>
-          </cell>
-          <cell r="O7">
-            <v>40</v>
-          </cell>
-          <cell r="P7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Elena</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Ruiz García</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>Calle Verde 21</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>32109876G</v>
-          </cell>
-          <cell r="F8">
-            <v>697183465</v>
-          </cell>
-          <cell r="G8">
-            <v>2</v>
-          </cell>
-          <cell r="H8">
-            <v>2</v>
-          </cell>
-          <cell r="I8">
-            <v>45863</v>
-          </cell>
-          <cell r="J8">
-            <v>45839</v>
-          </cell>
-          <cell r="K8">
-            <v>45869</v>
-          </cell>
-          <cell r="L8">
-            <v>45870</v>
-          </cell>
-          <cell r="M8">
-            <v>44985</v>
-          </cell>
-          <cell r="N8">
-            <v>1245</v>
-          </cell>
-          <cell r="O8">
-            <v>50</v>
-          </cell>
-          <cell r="P8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="I9">
-            <v>45894</v>
-          </cell>
-          <cell r="J9">
-            <v>45870</v>
-          </cell>
-          <cell r="K9">
-            <v>45900</v>
-          </cell>
-          <cell r="L9">
-            <v>45901</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="I10">
-            <v>45925</v>
-          </cell>
-          <cell r="J10">
-            <v>45901</v>
-          </cell>
-          <cell r="K10">
-            <v>45930</v>
-          </cell>
-          <cell r="L10">
-            <v>45931</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="I11">
-            <v>45955</v>
-          </cell>
-          <cell r="J11">
-            <v>45931</v>
-          </cell>
-          <cell r="K11">
-            <v>45961</v>
-          </cell>
-          <cell r="L11">
-            <v>45962</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="I12">
-            <v>45986</v>
-          </cell>
-          <cell r="J12">
-            <v>45962</v>
-          </cell>
-          <cell r="K12">
-            <v>45991</v>
-          </cell>
-          <cell r="L12">
-            <v>45992</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="I13">
-            <v>46016</v>
-          </cell>
-          <cell r="J13">
-            <v>45992</v>
-          </cell>
-          <cell r="K13">
-            <v>46022</v>
-          </cell>
-          <cell r="L13">
-            <v>46023</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1552,456 +1131,445 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="36" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="25" t="str">
+        <f>VLOOKUP(F2,Hoja1!B2:H8,2,FALSE)</f>
+        <v>López Martínez</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="42" t="str">
+        <f>VLOOKUP(F2,Hoja1!B2:H8,4,FALSE)</f>
+        <v>43210987F</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="25">
+        <f>VLOOKUP(F2,Hoja1!B2:H8,5,FALSE)</f>
+        <v>569831704</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="25">
+        <f>VLOOKUP(F2,Hoja1!B2:H8,6,FALSE)</f>
         <v>4</v>
       </c>
-      <c r="G2" s="39" t="str">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:H8,2,FALSE)</f>
-        <v>Díaz Martín</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="86" t="str">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:H8,4,FALSE)</f>
-        <v>98765432A</v>
-      </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="39">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:H8,5,FALSE)</f>
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="39">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:H8,6,FALSE)</f>
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="85" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="39">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:H8,7,FALSE)</f>
-        <v>2</v>
+      <c r="F6" s="60"/>
+      <c r="G6" s="25">
+        <f>VLOOKUP(F2,Hoja1!B2:H8,7,FALSE)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="41">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:M8,10,FALSE)</f>
+      <c r="F7" s="58"/>
+      <c r="G7" s="27">
+        <f>VLOOKUP(F2,Hoja1!B2:M8,12,FALSE)</f>
+        <v>44331</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="35">
+        <v>45682</v>
+      </c>
+      <c r="D8" s="36">
+        <f>VLOOKUP(C8,Hoja1!I2:K13,2,FALSE)</f>
+        <v>45658</v>
+      </c>
+      <c r="E8" s="36">
+        <f>VLOOKUP(C8,Hoja1!I2:K13,3,FALSE)</f>
         <v>45688</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="51">
-        <v>45925</v>
-      </c>
-      <c r="D8" s="52">
-        <f>VLOOKUP(C8,'[1]Hoja 1'!I2:K13,2,FALSE)</f>
-        <v>45901</v>
-      </c>
-      <c r="E8" s="52">
-        <f>VLOOKUP(C8,'[1]Hoja 1'!I2:K13,3,FALSE)</f>
-        <v>45930</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:N8,13,FALSE)</f>
-        <v>1245</v>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32">
+        <f>VLOOKUP(F2,Hoja1!B2:N8,13,FALSE)</f>
+        <v>1510</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="49">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:O8,14,FALSE)</f>
-        <v>50</v>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="33">
+        <f>VLOOKUP(F2,Hoja1!B2:O8,14,FALSE)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="46">
-        <f>VLOOKUP(F2,'[1]Hoja 1'!B2:P8,15,FALSE)</f>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="30">
+        <f>VLOOKUP(F2,Hoja1!B2:P8,15,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>10</v>
+      </c>
+      <c r="G13" s="33">
+        <f>E13*F13</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41">
+        <f>SUM(G11:G13)</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="43">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G18" s="44">
+        <f>(G14*F18)</f>
+        <v>73.319999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="43">
+        <v>0.1487</v>
+      </c>
+      <c r="G19" s="44">
+        <f>G14*F19</f>
+        <v>231.97200000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="44">
         <v>0</v>
       </c>
-      <c r="F13" s="46">
-        <v>10</v>
-      </c>
-      <c r="G13" s="49">
-        <f>E13*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58">
-        <f>SUM(G11:G13)</f>
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="61">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G18" s="62">
-        <f>(G14*F18)</f>
-        <v>60.865000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="61">
-        <v>0.1487</v>
-      </c>
-      <c r="G19" s="62">
-        <f>G14*F19</f>
-        <v>192.56649999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="58">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="41">
         <f>SUM(G19:G20)</f>
-        <v>192.56649999999999</v>
+        <v>231.97200000000001</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="13">
+      <c r="C24" s="7"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="8">
         <f>G14-G22</f>
-        <v>1102.4335000000001</v>
+        <v>1328.028</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70">
-        <f>VLOOKUP(C8,'[1]Hoja 1'!I2:L13,4,FALSE)</f>
-        <v>45931</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="49">
+        <f>VLOOKUP(C8,Hoja1!I2:L13,4,FALSE)</f>
+        <v>45689</v>
+      </c>
+      <c r="E26" s="50"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="74" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="75"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="45"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="80"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="80"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="62">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="44">
         <f>G14</f>
-        <v>1295</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="80"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="52"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="84">
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="54">
         <f>G14</f>
-        <v>1295</v>
+        <v>1560</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B1:D1"/>
@@ -2017,6 +1585,17 @@
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2046,7 +1625,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,90 +1636,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="12">
         <v>123456789</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="14">
         <v>45682</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="15">
         <v>45658</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="15">
         <v>45688</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="15">
         <v>45689</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="16">
         <v>44936</v>
       </c>
       <c r="N2">
@@ -2154,43 +1733,43 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="12">
         <v>234567890</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>6</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="14">
         <v>45713</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="15">
         <v>45689</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="15">
         <v>45716</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="15">
         <v>45717</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3" s="16">
         <v>44809</v>
       </c>
       <c r="N3">
@@ -2204,43 +1783,43 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="12">
         <v>345678901</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="14">
         <v>45741</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>45717</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="15">
         <v>45747</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="15">
         <v>45748</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="16">
         <v>44365</v>
       </c>
       <c r="N4">
@@ -2254,43 +1833,43 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <v>456789012</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="14">
         <v>45772</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="15">
         <v>45748</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="15">
         <v>45777</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="15">
         <v>45778</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="16">
         <v>43915</v>
       </c>
       <c r="N5">
@@ -2304,43 +1883,43 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="12">
         <v>567890123</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="14">
         <v>45802</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="15">
         <v>45778</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="15">
         <v>45808</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="15">
         <v>45809</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="16">
         <v>44867</v>
       </c>
       <c r="N6">
@@ -2354,43 +1933,43 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="12">
         <v>569831704</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>4</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="14">
         <v>45833</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="15">
         <v>45809</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="16">
         <v>45838</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="15">
         <v>45839</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="16">
         <v>44331</v>
       </c>
       <c r="N7">
@@ -2404,43 +1983,43 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="12">
         <v>697183465</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="14">
         <v>45863</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="15">
         <v>45839</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="16">
         <v>45869</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="15">
         <v>45870</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="16">
         <v>44985</v>
       </c>
       <c r="N8">
@@ -2454,112 +2033,112 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="20">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="14">
         <v>45894</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="15">
         <v>45870</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="16">
         <v>45900</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="15">
         <v>45901</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="20">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="14">
         <v>45925</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <v>45901</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="16">
         <v>45930</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="15">
         <v>45931</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="20">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="14">
         <v>45955</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="15">
         <v>45931</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="16">
         <v>45961</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="15">
         <v>45962</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="20">
+      <c r="A12" s="12"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="14">
         <v>45986</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="15">
         <v>45962</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="16">
         <v>45991</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="15">
         <v>45992</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="20">
+      <c r="A13" s="12"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="14">
         <v>46016</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="15">
         <v>45992</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="16">
         <v>46022</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="15">
         <v>46023</v>
       </c>
     </row>
